--- a/test/fixtures/files/populated_templates/populated-base-samples-template.xlsx
+++ b/test/fixtures/files/populated_templates/populated-base-samples-template.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="292">
   <si>
     <t>Experimental_assay_type</t>
   </si>
@@ -921,9 +921,6 @@
   </si>
   <si>
     <t>My Description</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/assays/1</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1207,7 +1204,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1675,7 +1671,7 @@
   <dimension ref="A2:AMJ19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1793,8 +1789,8 @@
       <c r="B10" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>292</v>
+      <c r="C10" s="7" t="s">
+        <v>272</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -1880,7 +1876,7 @@
     <mergeCell ref="E2:J6"/>
     <mergeCell ref="E7:J7"/>
   </mergeCells>
-  <dataValidations count="9">
+  <dataValidations count="10">
     <dataValidation type="custom" allowBlank="1" sqref="C19">
       <formula1>AND(A1&lt;&gt;"propliteral^wksowlv0")</formula1>
     </dataValidation>
@@ -1902,20 +1898,22 @@
     <dataValidation type="custom" allowBlank="1" sqref="C16">
       <formula1>AND(A1&lt;&gt;"propliteral^wksowlv6")</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" sqref="C6 C10">
+    <dataValidation type="custom" allowBlank="1" sqref="C6">
       <formula1>AND(A1&lt;&gt;"propliteral^wksowlv7")</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" sqref="C4">
       <formula1>AND(A1&lt;&gt;"propliteral^wksowlv8")</formula1>
     </dataValidation>
+    <dataValidation type="custom" allowBlank="1" sqref="C10">
+      <formula1>AND(A1&lt;&gt;"propliteral^wksowlv9")</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1" display="Master metadatasheet guide"/>
-    <hyperlink ref="C10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
